--- a/Arquivos/Regressao_mlinear_clusters_MAXcomp.xlsx
+++ b/Arquivos/Regressao_mlinear_clusters_MAXcomp.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epegovbr-my.sharepoint.com/personal/bernardo_albuquerque_epe_gov_br/Documents/Trabalhos/AvaliacaoClimatologica/Arquivos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD330572BEF9B3C1159A8B0726157E260" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E8E167-257D-408B-8591-37CB7F34A368}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="585" windowWidth="23415" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -118,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +124,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +153,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -175,76 +174,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAD3A431-B4F5-498B-B0FB-808FEBE1B7C2}" name="Tabela1" displayName="Tabela1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:D28" xr:uid="{CAD3A431-B4F5-498B-B0FB-808FEBE1B7C2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D28">
-    <sortCondition descending="1" ref="B1:B28"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{321B99EE-7C0E-4412-A6ED-B76CF371BCB0}" name="Torre"/>
-    <tableColumn id="2" xr3:uid="{E007C635-54C4-4616-B908-EDF076B1D555}" name="R^2"/>
-    <tableColumn id="3" xr3:uid="{DD7B2EE4-FB18-4F22-A15E-E8ECCEDB1B7D}" name="índices"/>
-    <tableColumn id="4" xr3:uid="{7C75FE65-AAF4-4E65-9087-405341327B4B}" name="Amostras"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,20 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,82 +484,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.90033508427591358</v>
+        <v>0.638371412460478</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
       <c r="D2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.69402846639470095</v>
+        <v>0.6016418059822111</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.68673646965609125</v>
+        <v>0.3347183431502868</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
       <c r="D4">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.68098541650561129</v>
+        <v>0.3930256971711116</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.3252055671855798</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>0.65508589758660252</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
       <c r="B7">
-        <v>0.65339599575971841</v>
+        <v>0.6550858975866025</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -642,54 +568,54 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.65045721482517127</v>
+        <v>0.3659980233821877</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
       <c r="D8">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0.64882747303500721</v>
+        <v>0.5620802182470617</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.64177446518568337</v>
+        <v>0.6940284663947009</v>
       </c>
       <c r="C10">
         <v>24</v>
       </c>
       <c r="D10">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.63837141246047802</v>
+        <v>0.6533959957597184</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -698,222 +624,222 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.6809854165056113</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.5805245859232692</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.3301344068799793</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.5569341688659677</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.338751475670458</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.6867364696560913</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0.3885522859131501</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.6488274730350072</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.6504572148251713</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.9003350842759136</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0.3049840053216266</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.6417744651856834</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.6105855314660804</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.5060583806821908</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0.5574938498733411</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
-        <v>0.61967315084506502</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>0.61058553146608041</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>0.60164180598221106</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.58052458592326917</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>0.56208021824706167</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0.55749384987334105</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.55693416886596769</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>0.50605838068219078</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>0.39302569717111158</v>
-      </c>
-      <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.38855228591315011</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>0.36599802338218768</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>0.35755960170353412</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>0.33875147567045799</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>0.33471834315028681</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>0.3301344068799793</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
       <c r="B27">
-        <v>0.3252055671855798</v>
+        <v>0.619673150845065</v>
       </c>
       <c r="C27">
         <v>24</v>
@@ -922,24 +848,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>0.30498400532162662</v>
+        <v>0.3575596017035341</v>
       </c>
       <c r="C28">
         <v>24</v>
       </c>
       <c r="D28">
-        <v>116</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>